--- a/src/politicas_graficos/inventario/modelo_opti/leadtimes_sensibilidad/analisis_sensibilidad.xlsx
+++ b/src/politicas_graficos/inventario/modelo_opti/leadtimes_sensibilidad/analisis_sensibilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\Universidad\7MO SEMESTRE\Capstone\Codigo\src\politicas_graficos\inventario\modelo_opti\leadtimes_sensibilidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF9377-4900-42A7-B34D-B314429D1275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEBC480-FA00-42DD-AA60-74D67B875A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12BBDE03-1D7B-4DDE-9BA8-D7654B5C199E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Modelo Opti</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>120 segundos</t>
+  </si>
+  <si>
+    <t>105 segundos</t>
   </si>
 </sst>
 </file>
@@ -118,11 +121,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +463,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,52 +473,53 @@
     <col min="3" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0.3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0.1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>0.2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>0.3</v>
       </c>
     </row>
@@ -541,6 +545,15 @@
       <c r="G3">
         <v>32309806</v>
       </c>
+      <c r="H3">
+        <v>40085383</v>
+      </c>
+      <c r="I3">
+        <v>41245826</v>
+      </c>
+      <c r="J3">
+        <v>41337316</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -564,6 +577,15 @@
       <c r="G4">
         <v>2162</v>
       </c>
+      <c r="H4">
+        <v>1240</v>
+      </c>
+      <c r="I4">
+        <v>1530</v>
+      </c>
+      <c r="J4">
+        <v>1804</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -587,6 +609,15 @@
       <c r="G5">
         <v>3507</v>
       </c>
+      <c r="H5">
+        <v>1966</v>
+      </c>
+      <c r="I5">
+        <v>2461</v>
+      </c>
+      <c r="J5">
+        <v>2892</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -610,6 +641,15 @@
       <c r="G6">
         <v>31534</v>
       </c>
+      <c r="H6">
+        <v>33075</v>
+      </c>
+      <c r="I6">
+        <v>32580</v>
+      </c>
+      <c r="J6">
+        <v>32149</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -633,6 +673,15 @@
       <c r="G7">
         <v>4299</v>
       </c>
+      <c r="H7">
+        <v>5463</v>
+      </c>
+      <c r="I7">
+        <v>5412</v>
+      </c>
+      <c r="J7">
+        <v>5352</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -656,6 +705,15 @@
       <c r="G8">
         <v>116344074.8</v>
       </c>
+      <c r="H8">
+        <v>144036315.80000001</v>
+      </c>
+      <c r="I8">
+        <v>127950879</v>
+      </c>
+      <c r="J8">
+        <v>118683245</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -679,6 +737,15 @@
       <c r="G9">
         <v>501501</v>
       </c>
+      <c r="H9">
+        <v>461511</v>
+      </c>
+      <c r="I9">
+        <v>431676</v>
+      </c>
+      <c r="J9">
+        <v>427491</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -702,18 +769,27 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1.5859000000000002E-2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1.5251000000000001E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1.4722000000000001E-2</v>
       </c>
       <c r="E11" t="s">
